--- a/data/data_ieee37.xlsx
+++ b/data/data_ieee37.xlsx
@@ -416,7 +416,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -432,7 +432,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>256</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -440,7 +440,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -448,7 +448,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>768</v>
+        <v>5120</v>
       </c>
     </row>
   </sheetData>
